--- a/input/cwe_to_cve_filtered.xlsx
+++ b/input/cwe_to_cve_filtered.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,166 +458,166 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CWE-494</t>
+          <t>CWE-732</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CVE-2021-30657</t>
+          <t>CVE-2018-12131</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:H/A:N</t>
+          <t>AV:L/AC:H/PR:L/UI:R/S:C/C:L/I:L/A:L</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:H/AT:P/PR:L/UI:A/VC:L/VI:L/VA:L/SC:L/SI:L/SA:L</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CWE-494</t>
+          <t>CWE-732</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CVE-2021-44168</t>
+          <t>CVE-2019-0804</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:N/I:L/A:N</t>
+          <t>AV:N/AC:L/PR:L/UI:N/S:C/C:L/I:N/A:N</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:N/VI:L/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:L/VI:N/VA:N/SC:L/SI:N/SA:N</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CWE-494</t>
+          <t>CWE-732</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CVE-2024-39348</t>
+          <t>CVE-2018-12396</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AV:N/AC:H/PR:N/UI:R/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:C/C:L/I:L/A:N</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:H/AT:P/PR:N/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:L/VI:L/VA:N/SC:L/SI:L/SA:N</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CWE-494</t>
+          <t>CWE-732</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CVE-2019-3977</t>
+          <t>CVE-2019-13682</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:N/I:H/A:N</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CWE-494</t>
+          <t>CWE-732</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CVE-2022-36359</t>
+          <t>CVE-2019-13681</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:L/A:N</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:L/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CWE-494</t>
+          <t>CWE-732</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CVE-2022-45442</t>
+          <t>CVE-2019-13679</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:H/A:H</t>
+          <t>AV:L/AC:L/PR:N/UI:R/S:U/C:L/I:N/A:N</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:A/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CWE-1188</t>
+          <t>CWE-732</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CVE-2020-25032</t>
+          <t>CVE-2019-13677</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:N/A:N</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:N/A:N</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CWE-922</t>
+          <t>CWE-732</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CVE-2019-13717</t>
+          <t>CVE-2019-13676</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -634,66 +634,1210 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CWE-922</t>
+          <t>CWE-732</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CVE-2019-13719</t>
+          <t>CVE-2019-13668</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:L/A:N</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:C/C:H/I:N/A:N</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:L/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:H/SI:N/SA:N</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CWE-922</t>
+          <t>CWE-732</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CVE-2023-32184</t>
+          <t>CVE-2019-13665</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:N/UI:R/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:H/A:N</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CWE-922</t>
+          <t>CWE-732</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CVE-2020-27746</t>
+          <t>CVE-2019-13664</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AV:N/AC:H/PR:N/UI:N/S:U/C:L/I:N/A:N</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:H/A:N</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:H/AT:P/PR:N/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CVE-2019-13662</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:H/A:N</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CVE-2019-13683</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CVE-2019-13659</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:L/A:N</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:L/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>CVE-2019-13727</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CVE-2019-13738</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:H/A:N</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CVE-2019-13697</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CVE-2019-11748</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>CVE-2020-13696</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:L/I:L/A:N</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:L/VI:L/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>CVE-2020-15708</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>CVE-2017-7821</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>CVE-2020-6562</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:C/C:N/I:L/A:N</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:N/VI:L/VA:N/SC:N/SI:L/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>CVE-2020-26932</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:N/I:L/A:N</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:N/VI:L/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CVE-2020-17490</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>CVE-2021-33586</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:L/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>CVE-2018-7169</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>CVE-2014-10402</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:L</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:L/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CVE-2022-24769</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:N/UI:N/S:U/C:L/I:L/A:L</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:L/VI:L/VA:L/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>CVE-2018-13374</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:L/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CVE-2023-45364</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CVE-2018-7408</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CVE-2021-3631</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>AV:L/AC:H/PR:L/UI:N/S:U/C:H/I:H/A:N</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:H/AT:P/PR:L/UI:N/VC:H/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>CVE-2023-45369</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:L/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>CVE-2023-38497</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:R/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>CVE-2023-5077</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:N/I:H/A:N</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>CVE-2019-15752</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>AV:N/AC:H/PR:N/UI:R/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:H/AT:P/PR:N/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>CVE-2019-5543</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>CVE-2024-27108</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>AV:P/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:P/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>CVE-2019-1376</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>CVE-2019-1313</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>CVE-2020-1056</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:H/A:N</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>CVE-2021-32101</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:L/A:N</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:L/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CVE-2021-25318</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>CVE-2019-8071</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>CVE-2020-0563</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>CVE-2021-22149</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CVE-2021-38483</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:H/UI:N/S:U/C:N/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:H/UI:N/VC:N/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>CVE-2022-21475</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>AV:N/AC:H/PR:L/UI:R/S:U/C:L/I:H/A:L</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:H/AT:P/PR:L/UI:A/VC:L/VI:H/VA:L/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>CVE-2022-31465</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CVE-2021-22716</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CVE-2022-43773</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CVE-2023-30512</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CVE-2023-25817</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:N/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:N/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>CVE-2023-47564</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:R/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>CVE-2023-50292</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CVE-2024-30208</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:C/C:L/I:L/A:L</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:L/VI:L/VA:L/SC:L/SI:L/SA:L</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CVE-2023-7261</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:N/UI:N/S:U/C:H/I:L/A:L</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:L/VA:L/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CVE-2024-33499</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:H/UI:N/S:C/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:H/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>CVE-2024-2905</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:N/UI:N/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>CVE-2023-6179</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CVE-2024-24910</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CVE-2023-23767</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:H/UI:N/S:C/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:H/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CVE-2023-46141</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>

--- a/input/cwe_to_cve_filtered.xlsx
+++ b/input/cwe_to_cve_filtered.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CVE-2018-12131</t>
+          <t>CVE-2020-8731</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AV:L/AC:H/PR:L/UI:R/S:C/C:L/I:L/A:L</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:C/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:H/AT:P/PR:L/UI:A/VC:L/VI:L/VA:L/SC:L/SI:L/SA:L</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CVE-2019-0804</t>
+          <t>CVE-2022-43309</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:C/C:L/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:N/I:H/A:H</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:L/VI:N/VA:N/SC:L/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:N/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>CVE-2018-12396</t>
+          <t>CVE-2022-37019</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:C/C:L/I:L/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:U/C:N/I:H/A:L</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:L/VI:L/VA:N/SC:L/SI:L/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:N/VI:H/VA:L/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>CVE-2019-13682</t>
+          <t>CVE-2022-37020</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:H/A:H</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:U/C:N/I:H/A:L</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:N/VI:H/VA:L/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>CVE-2019-13681</t>
+          <t>CVE-2018-12131</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:L/A:N</t>
+          <t>AV:L/AC:H/PR:L/UI:R/S:C/C:L/I:L/A:L</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:L/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:H/AT:P/PR:L/UI:A/VC:L/VI:L/VA:L/SC:L/SI:L/SA:L</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>CVE-2019-13679</t>
+          <t>CVE-2009-1073</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:N/UI:R/S:U/C:L/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:C/C:H/I:N/A:N</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:A/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:N/VA:N/SC:H/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>CVE-2019-13677</t>
+          <t>CVE-2009-0115</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:C/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CVE-2019-13676</t>
+          <t>CVE-2009-0115</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:L/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:C/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:L/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CVE-2019-13668</t>
+          <t>CVE-2009-0115</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:C/C:H/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:C/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:H/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CVE-2019-13665</t>
+          <t>CVE-2011-4339</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:H/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:C/C:N/I:L/A:L</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:N/VI:L/VA:L/SC:N/SI:L/SA:L</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CVE-2019-13664</t>
+          <t>CVE-2011-4339</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:H/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:C/C:N/I:L/A:L</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:N/VI:L/VA:L/SC:N/SI:L/SA:L</t>
         </is>
       </c>
     </row>
@@ -705,17 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CVE-2019-13662</t>
+          <t>CVE-2009-0115</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:H/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:C/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>CVE-2019-13683</t>
+          <t>CVE-2009-0115</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:C/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>CVE-2019-13659</t>
+          <t>CVE-2011-4339</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:L/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:C/C:N/I:L/A:L</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:L/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:N/VI:L/VA:L/SC:N/SI:L/SA:L</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CVE-2019-13727</t>
+          <t>CVE-2011-4339</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:H/A:H</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:C/C:N/I:L/A:L</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:N/VI:L/VA:L/SC:N/SI:L/SA:L</t>
         </is>
       </c>
     </row>
@@ -793,17 +793,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CVE-2019-13738</t>
+          <t>CVE-2009-0115</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:H/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:N/S:C/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
         </is>
       </c>
     </row>
@@ -815,17 +815,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CVE-2019-13697</t>
+          <t>CVE-2019-0073</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:L/UI:R/S:U/C:H/I:H/A:N</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:A/VC:H/VI:H/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -837,17 +837,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CVE-2019-11748</t>
+          <t>CVE-2020-1123</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:N/I:N/A:H</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:N/VI:N/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -859,17 +859,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CVE-2020-13696</t>
+          <t>CVE-2020-1084</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:L/I:L/A:N</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:N/I:N/A:H</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:L/VI:L/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:N/VI:N/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CVE-2020-15708</t>
+          <t>CVE-2020-0951</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:L/AC:L/PR:H/UI:N/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:H/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -903,17 +903,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CVE-2017-7821</t>
+          <t>CVE-2020-0805</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:L/I:L/A:L</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:L/VI:L/VA:L/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CVE-2020-6562</t>
+          <t>CVE-2020-27658</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:N/S:C/C:N/I:L/A:N</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:C/C:L/I:L/A:N</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:N/VI:L/VA:N/SC:N/SI:L/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:L/VI:L/VA:N/SC:L/SI:L/SA:N</t>
         </is>
       </c>
     </row>
@@ -947,17 +947,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CVE-2020-26932</t>
+          <t>CVE-2017-13168</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:N/I:L/A:N</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:N/VI:L/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -969,17 +969,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CVE-2020-17490</t>
+          <t>CVE-2020-24394</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:N</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -991,17 +991,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CVE-2021-33586</t>
+          <t>CVE-2021-36958</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:L/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:L/UI:R/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1013,17 +1013,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>CVE-2018-7169</t>
+          <t>CVE-2021-38198</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:N/I:N/A:H</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:N/VI:N/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1035,17 +1035,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>CVE-2014-10402</t>
+          <t>CVE-2022-36103</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:L</t>
+          <t>AV:N/AC:L/PR:H/UI:N/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:L/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:H/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1057,17 +1057,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>CVE-2022-24769</t>
+          <t>CVE-2023-28960</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:N/UI:N/S:U/C:L/I:L/A:L</t>
+          <t>AV:L/AC:L/PR:L/UI:R/S:C/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:L/VI:L/VA:L/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:A/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
         </is>
       </c>
     </row>
@@ -1079,17 +1079,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>CVE-2018-13374</t>
+          <t>CVE-2022-22248</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:L/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:L/UI:R/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1101,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>CVE-2023-45364</t>
+          <t>CVE-2023-20234</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:H/UI:N/S:U/C:N/I:H/A:N</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:H/UI:N/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1123,17 +1123,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CVE-2018-7408</t>
+          <t>CVE-2023-44201</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:L/AC:L/PR:L/UI:R/S:U/C:H/I:N/A:N</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1145,17 +1145,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CVE-2021-3631</t>
+          <t>CVE-2023-42924</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AV:L/AC:H/PR:L/UI:N/S:U/C:H/I:H/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:R/S:U/C:H/I:N/A:N</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:H/AT:P/PR:L/UI:N/VC:H/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CVE-2023-45369</t>
+          <t>CVE-2024-20456</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:L/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:H/UI:N/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:H/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1189,17 +1189,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CVE-2023-38497</t>
+          <t>CVE-2024-40865</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:R/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:N/A:N</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1211,17 +1211,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>CVE-2023-5077</t>
+          <t>CVE-2019-18422</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:N/I:H/A:N</t>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1233,17 +1233,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>CVE-2019-15752</t>
+          <t>CVE-2021-34758</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>AV:N/AC:H/PR:N/UI:R/S:U/C:H/I:H/A:H</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:N/I:L/A:L</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:H/AT:P/PR:N/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:N/VI:L/VA:L/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1255,17 +1255,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CVE-2019-5543</t>
+          <t>CVE-2019-0804</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:L/UI:N/S:C/C:L/I:N/A:N</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:L/VI:N/VA:N/SC:L/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1277,17 +1277,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CVE-2024-27108</t>
+          <t>CVE-2018-12396</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AV:P/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:C/C:L/I:L/A:N</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:P/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:L/VI:L/VA:N/SC:L/SI:L/SA:N</t>
         </is>
       </c>
     </row>
@@ -1299,17 +1299,17 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CVE-2019-1376</t>
+          <t>CVE-2019-13682</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1321,17 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>CVE-2019-1313</t>
+          <t>CVE-2019-13681</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:L/A:N</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:L/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1343,17 +1343,17 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>CVE-2020-1056</t>
+          <t>CVE-2019-13679</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:H/A:N</t>
+          <t>AV:L/AC:L/PR:N/UI:R/S:U/C:L/I:N/A:N</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:A/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1365,17 +1365,17 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CVE-2021-32101</t>
+          <t>CVE-2019-13677</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:L/A:N</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:N/A:N</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:L/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1387,17 +1387,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CVE-2021-25318</t>
+          <t>CVE-2019-13676</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:L/A:N</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:L/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1409,17 +1409,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CVE-2019-8071</t>
+          <t>CVE-2019-13668</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:C/C:H/I:N/A:N</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:H/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1431,17 +1431,17 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>CVE-2020-0563</t>
+          <t>CVE-2019-13665</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:H/A:N</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1453,17 +1453,17 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>CVE-2021-22149</t>
+          <t>CVE-2019-13664</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:H/A:N</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1475,17 +1475,17 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>CVE-2021-38483</t>
+          <t>CVE-2019-13662</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:H/UI:N/S:U/C:N/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:H/A:N</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:H/UI:N/VC:N/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1497,17 +1497,17 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>CVE-2022-21475</t>
+          <t>CVE-2019-13683</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>AV:N/AC:H/PR:L/UI:R/S:U/C:L/I:H/A:L</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:N/A:N</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:H/AT:P/PR:L/UI:A/VC:L/VI:H/VA:L/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1519,17 +1519,17 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>CVE-2022-31465</t>
+          <t>CVE-2019-13659</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:L/A:N</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:L/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1541,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>CVE-2021-22716</t>
+          <t>CVE-2019-13727</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1563,17 +1563,17 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CVE-2022-43773</t>
+          <t>CVE-2019-13738</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:N/I:H/A:N</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1585,17 +1585,17 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>CVE-2023-30512</t>
+          <t>CVE-2019-13697</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:N/A:N</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1607,17 +1607,17 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CVE-2023-25817</t>
+          <t>CVE-2019-11748</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:N/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:N/A:N</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:N/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1629,17 +1629,17 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>CVE-2023-47564</t>
+          <t>CVE-2020-13696</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:L/UI:R/S:U/C:H/I:H/A:H</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:L/I:L/A:N</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:L/VI:L/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CVE-2023-50292</t>
+          <t>CVE-2020-15708</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1673,17 +1673,17 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CVE-2024-30208</t>
+          <t>CVE-2017-7821</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:C/C:L/I:L/A:L</t>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:L/VI:L/VA:L/SC:L/SI:L/SA:L</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1695,17 +1695,17 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CVE-2023-7261</t>
+          <t>CVE-2020-6562</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:N/UI:N/S:U/C:H/I:L/A:L</t>
+          <t>AV:N/AC:L/PR:N/UI:N/S:C/C:N/I:L/A:N</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:L/VA:L/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:N/VI:L/VA:N/SC:N/SI:L/SA:N</t>
         </is>
       </c>
     </row>
@@ -1717,17 +1717,17 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CVE-2024-33499</t>
+          <t>CVE-2020-26932</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>AV:N/AC:L/PR:H/UI:N/S:C/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:N/I:L/A:N</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:H/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:N/VI:L/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1739,17 +1739,17 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>CVE-2024-2905</t>
+          <t>CVE-2020-17490</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:N/UI:N/S:U/C:H/I:N/A:N</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1761,17 +1761,17 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>CVE-2023-6179</t>
+          <t>CVE-2021-33586</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:L/I:N/A:N</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1783,17 +1783,17 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>CVE-2024-24910</t>
+          <t>CVE-2018-7169</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:N/A:N</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1805,17 +1805,17 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>CVE-2023-23767</t>
+          <t>CVE-2014-10402</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>AV:L/AC:L/PR:H/UI:N/S:C/C:H/I:H/A:H</t>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:L</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:H/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:L/SC:N/SI:N/SA:N</t>
         </is>
       </c>
     </row>
@@ -1827,15 +1827,1621 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
+          <t>CVE-2022-24769</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:N/UI:N/S:U/C:L/I:L/A:L</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:L/VI:L/VA:L/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CVE-2018-13374</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:L/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CVE-2023-45364</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>CVE-2018-7408</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>CVE-2021-3631</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>AV:L/AC:H/PR:L/UI:N/S:U/C:H/I:H/A:N</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:H/AT:P/PR:L/UI:N/VC:H/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>CVE-2023-45369</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:L/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>CVE-2023-38497</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:R/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>CVE-2023-5077</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:N/I:H/A:N</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>CVE-2019-14824</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>CVE-2022-23132</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:L/A:L</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:L/VI:L/VA:L/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>CVE-2023-32723</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:N</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>CVE-2023-32724</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CVE-2019-6465</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:L/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>CVE-2021-32056</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:N/I:N/A:L</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:N/VI:N/VA:L/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>CVE-2023-0225</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:N/I:L/A:L</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:N/VI:L/VA:L/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>CVE-2019-15752</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>AV:N/AC:H/PR:N/UI:R/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:H/AT:P/PR:N/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>CVE-2024-29187</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:R/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>CVE-2019-5543</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>CVE-2023-31238</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>AV:N/AC:H/PR:N/UI:N/S:U/C:L/I:L/A:N</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:H/AT:P/PR:N/UI:N/VC:L/VI:L/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>CVE-2023-38557</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:H/UI:N/S:C/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:H/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>CVE-2024-27108</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>AV:P/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:P/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>CVE-2021-43065</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>CVE-2023-22326</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:H/UI:N/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:H/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CVE-2019-1376</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>CVE-2019-1313</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>CVE-2020-1056</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:H/A:N</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>CVE-2021-32101</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:L/A:N</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:L/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>CVE-2021-25318</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>CVE-2019-8071</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>CVE-2020-0563</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>CVE-2021-22149</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>CVE-2021-38483</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:H/UI:N/S:U/C:N/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:H/UI:N/VC:N/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>CVE-2022-21475</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>AV:N/AC:H/PR:L/UI:R/S:U/C:L/I:H/A:L</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:H/AT:P/PR:L/UI:A/VC:L/VI:H/VA:L/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>CVE-2022-31465</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>CVE-2021-22716</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>CVE-2022-43773</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>CVE-2023-30512</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>CVE-2023-25817</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:N/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:N/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>CVE-2023-47564</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:R/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>CVE-2023-50292</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>CVE-2024-30208</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:C/C:L/I:L/A:L</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:L/VI:L/VA:L/SC:L/SI:L/SA:L</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>CVE-2023-7261</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:N/UI:N/S:U/C:H/I:L/A:L</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:L/VA:L/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>CVE-2024-33499</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:H/UI:N/S:C/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:H/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>CVE-2024-2905</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:N/UI:N/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>CVE-2023-6179</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>CVE-2022-23448</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:R/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>CVE-2022-23448</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>CVE-2023-30897</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>CVE-2023-3322</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>AV:L/AC:H/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:H/AT:P/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>CVE-2023-38640</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:L/I:L/A:H</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:L/VI:L/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>CVE-2022-44725</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>CVE-2021-28645</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>CVE-2021-28646</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:N/I:H/A:N</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:N/VI:H/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>CVE-2023-28133</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:L/I:L/A:L</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:L/VI:L/VA:L/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>CVE-2023-28134</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>CVE-2024-24910</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>CVE-2018-1711</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>CVE-2020-4414</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:N/UI:N/S:U/C:L/I:N/A:L</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:N/UI:N/VC:L/VI:N/VA:L/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>CVE-2023-33990</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>CVE-2021-23055</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:U/C:H/I:N/A:N</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:N/VA:N/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>CVE-2022-2185</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:C/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>CVE-2023-31454</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>CVE-2023-2478</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:L/UI:N/S:C/C:H/I:H/A:N</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:N/SC:H/SI:H/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>CVE-2024-5915</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>CVE-2020-10642</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>CVE-2023-23767</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:H/UI:N/S:C/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:H/UI:N/VC:H/VI:H/VA:H/SC:H/SI:H/SA:H</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>CVE-2017-3166</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:R/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:A/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>CVE-2022-42972</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>CVE-2022-39062</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:L/I:L/A:L</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:L/VI:L/VA:L/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
           <t>CVE-2023-46141</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C133" t="inlineStr">
         <is>
           <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>CVE-2023-1135</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>CVE-2024-22016</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>CVE-2024-37369</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>AV:L/AC:L/PR:L/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>CVSS:4.0/AV:L/AC:L/AT:N/PR:L/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>CWE-732</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>CVE-2023-0757</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>AV:N/AC:L/PR:N/UI:N/S:U/C:H/I:H/A:H</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
         <is>
           <t>CVSS:4.0/AV:N/AC:L/AT:N/PR:N/UI:N/VC:H/VI:H/VA:H/SC:N/SI:N/SA:N</t>
         </is>
